--- a/data/consumables.xlsx
+++ b/data/consumables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7A37C-A32E-4CFE-AA79-87FF7178484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E48DF7-7046-41C9-8365-C152773FC25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="0" windowWidth="16725" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1440" windowWidth="16725" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2729,7 +2729,7 @@
   <dimension ref="A1:C748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10111,10 +10111,10 @@
         <v>768</v>
       </c>
       <c r="B671" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="C671" t="s">
-        <v>684</v>
+        <v>564</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -10122,10 +10122,10 @@
         <v>768</v>
       </c>
       <c r="B672" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="C672" t="s">
-        <v>685</v>
+        <v>565</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -10136,7 +10136,7 @@
         <v>750</v>
       </c>
       <c r="C673" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -10147,7 +10147,7 @@
         <v>750</v>
       </c>
       <c r="C674" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -10158,7 +10158,7 @@
         <v>750</v>
       </c>
       <c r="C675" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -10169,7 +10169,7 @@
         <v>750</v>
       </c>
       <c r="C676" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -10177,10 +10177,10 @@
         <v>768</v>
       </c>
       <c r="B677" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C677" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -10188,10 +10188,10 @@
         <v>768</v>
       </c>
       <c r="B678" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C678" t="s">
-        <v>569</v>
+        <v>678</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -10199,10 +10199,10 @@
         <v>768</v>
       </c>
       <c r="B679" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C679" t="s">
-        <v>570</v>
+        <v>679</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -10213,7 +10213,7 @@
         <v>755</v>
       </c>
       <c r="C680" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -10224,7 +10224,7 @@
         <v>755</v>
       </c>
       <c r="C681" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -10232,10 +10232,10 @@
         <v>768</v>
       </c>
       <c r="B682" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C682" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -10243,32 +10243,32 @@
         <v>768</v>
       </c>
       <c r="B683" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C683" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B684" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C684" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B685" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C685" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/consumables.xlsx
+++ b/data/consumables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E48DF7-7046-41C9-8365-C152773FC25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41146D3A-7E9C-4811-A98C-8C3E08BF226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1440" windowWidth="16725" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="720" windowWidth="16725" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2729,7 +2729,7 @@
   <dimension ref="A1:C748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10965,11 +10965,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C748">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
